--- a/blank.xlsx
+++ b/blank.xlsx
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -86,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -94,73 +90,52 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -443,455 +418,376 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A31" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="2" customWidth="1"/>
-    <col min="4" max="5" width="9.1640625" style="2"/>
-    <col min="6" max="6" width="13.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="2.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16" style="2" customWidth="1"/>
-    <col min="10" max="11" width="0" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="9.1640625" style="2" collapsed="1"/>
-    <col min="13" max="16384" width="9.1640625" style="2"/>
+    <col min="1" max="1" width="3.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
+    <col min="4" max="5" width="9.1640625" style="3"/>
+    <col min="6" max="6" width="13.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16" style="3" customWidth="1"/>
+    <col min="10" max="11" width="0" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="9.1640625" style="3" collapsed="1"/>
+    <col min="13" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="3"/>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
-      <c r="G3" s="4"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="1"/>
-      <c r="C6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="C6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="H9" s="6"/>
-      <c r="I9" s="7"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="1"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="H14" s="6"/>
-      <c r="I14" s="7"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B15" s="1"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="H16" s="6"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="2:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H16" s="4"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="1"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-    </row>
-    <row r="22" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I27" s="13"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I28" s="13"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I29" s="13"/>
+      <c r="I29" s="12"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I30" s="13"/>
+      <c r="I30" s="12"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I31" s="13"/>
+      <c r="I31" s="12"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I32" s="13"/>
+      <c r="I32" s="12"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I33" s="13"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I34" s="13"/>
+      <c r="I34" s="12"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I35" s="13"/>
+      <c r="I35" s="12"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I36" s="13"/>
+      <c r="I36" s="12"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I37" s="13"/>
+      <c r="I37" s="12"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I38" s="13"/>
+      <c r="I38" s="12"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I39" s="13"/>
+      <c r="I39" s="12"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I40" s="13"/>
+      <c r="I40" s="12"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I41" s="13"/>
+      <c r="I41" s="12"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I42" s="13"/>
+      <c r="I42" s="12"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C43" s="14"/>
-      <c r="I43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="I43" s="12"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="14"/>
-      <c r="I44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="I44" s="12"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="14"/>
-      <c r="I45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="I45" s="12"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="15"/>
+      <c r="I46" s="12"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I47" s="13"/>
+      <c r="I47" s="12"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E48" s="16"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="19"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="15"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E48" s="14"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="17"/>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="I49" s="12"/>
+    </row>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C63" s="3"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C63" s="5"/>
+    </row>
+    <row r="64" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C64" s="1"/>
-      <c r="H64" s="4"/>
+      <c r="H64" s="6"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C67" s="1"/>
-      <c r="D67" s="5"/>
-      <c r="H67" s="5"/>
+      <c r="D67" s="7"/>
+      <c r="H67" s="7"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="I68" s="6"/>
-      <c r="J68" s="7"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="8"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="8"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="I70" s="6"/>
-      <c r="J70" s="7"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="8"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="8"/>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="I72" s="6"/>
-      <c r="J72" s="7"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="8"/>
     </row>
     <row r="73" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="I73" s="6"/>
-      <c r="J73" s="7"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="8"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C74" s="1"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="8"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="I75" s="6"/>
-      <c r="J75" s="7"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="8"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C76" s="1"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="8"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C78" s="1"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="10"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I82" s="6"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="G83" s="6"/>
-      <c r="I83" s="6"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="G84" s="6"/>
-      <c r="I84" s="6"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I87" s="13"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C88" s="14"/>
-      <c r="I88" s="13"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I89" s="13"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I90" s="13"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C91" s="14"/>
-      <c r="I91" s="13"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I92" s="13"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I93" s="13"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I94" s="13"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C95" s="14"/>
-      <c r="I95" s="13"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I96" s="13"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I97" s="13"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I98" s="13"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I99" s="13"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I100" s="13"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I101" s="13"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I102" s="13"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I103" s="13"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I104" s="13"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I105" s="13"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I106" s="13"/>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E107" s="17"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="18"/>
-      <c r="H107" s="17"/>
-      <c r="I107" s="19"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E108" s="17"/>
-      <c r="F108" s="16"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="17"/>
-      <c r="I108" s="19"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="20"/>
-      <c r="H109" s="20"/>
-      <c r="I109" s="21"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E110" s="17"/>
-      <c r="F110" s="17"/>
-      <c r="G110" s="17"/>
-      <c r="H110" s="17"/>
-      <c r="I110" s="19"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E111" s="17"/>
-      <c r="F111" s="16"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="17"/>
-      <c r="I111" s="19"/>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B112" s="11"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
-      <c r="H112" s="11"/>
-      <c r="I112" s="22"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="11"/>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="I82" s="4"/>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="G83" s="4"/>
+      <c r="I83" s="4"/>
+    </row>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="G84" s="4"/>
+      <c r="I84" s="4"/>
+    </row>
+    <row r="87" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="I87" s="12"/>
+    </row>
+    <row r="88" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C88" s="13"/>
+      <c r="I88" s="12"/>
+    </row>
+    <row r="89" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="I89" s="12"/>
+    </row>
+    <row r="90" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="I90" s="12"/>
+    </row>
+    <row r="91" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C91" s="13"/>
+      <c r="I91" s="12"/>
+    </row>
+    <row r="92" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="I92" s="12"/>
+    </row>
+    <row r="93" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="I93" s="12"/>
+    </row>
+    <row r="94" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="I94" s="12"/>
+    </row>
+    <row r="95" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C95" s="13"/>
+      <c r="I95" s="12"/>
+    </row>
+    <row r="96" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="I96" s="12"/>
+    </row>
+    <row r="97" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="I97" s="12"/>
+    </row>
+    <row r="98" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="I98" s="12"/>
+    </row>
+    <row r="99" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="I99" s="12"/>
+    </row>
+    <row r="100" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="I100" s="12"/>
+    </row>
+    <row r="101" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="I101" s="12"/>
+    </row>
+    <row r="102" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="I102" s="12"/>
+    </row>
+    <row r="103" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="I103" s="12"/>
+    </row>
+    <row r="104" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="I104" s="12"/>
+    </row>
+    <row r="105" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="I105" s="12"/>
+    </row>
+    <row r="106" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="I106" s="12"/>
+    </row>
+    <row r="107" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="E107" s="15"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="17"/>
+    </row>
+    <row r="108" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="E108" s="15"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="17"/>
+    </row>
+    <row r="109" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="17"/>
+    </row>
+    <row r="110" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="17"/>
+    </row>
+    <row r="111" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="E111" s="15"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="17"/>
+    </row>
+    <row r="112" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="I112" s="18"/>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B114" s="4"/>
-      <c r="I114" s="12"/>
+      <c r="B114" s="6"/>
+      <c r="I114" s="2"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B115" s="4"/>
-      <c r="I115" s="6"/>
+      <c r="B115" s="6"/>
+      <c r="I115" s="4"/>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I119" s="23"/>
+      <c r="I119" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
